--- a/log/c660_log.xlsx
+++ b/log/c660_log.xlsx
@@ -145,496 +145,496 @@
     <t>Combined Feed to Benzene Column C660_Detailed Composition_Oxygen_wt%</t>
   </si>
   <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Hydrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Methane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Ethane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Propane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Butane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Pentane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Hexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Benzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Cyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Heptane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Water_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Methylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Toluene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Octane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Propylcyclopentane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Ethylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_p-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_m-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_o-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Nonane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_i-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Propylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1-Methyl-3-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1-Methyl-4-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1,3,5-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1-Methyl-2-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1,2,4-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_tert-Butylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1,2,3-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Indane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1-Methyl-4-n-propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1,2-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_5-Ethyl-m-xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1,4-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_1,2,3,5-Tetramethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Pentylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_n-Hexylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Nitrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Vent Gas_Oxygen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Hydrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Methane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Ethane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Propane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Butane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Pentane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Hexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Benzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Cyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Heptane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Water_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Methylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Toluene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Octane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Propylcyclopentane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Ethylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_p-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_m-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_o-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Nonane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_i-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Propylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1-Methyl-3-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1-Methyl-4-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1,3,5-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1-Methyl-2-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1,2,4-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_tert-Butylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1,2,3-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Indane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1-Methyl-4-n-propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1,2-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_5-Ethyl-m-xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1,4-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_1,2,3,5-Tetramethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Pentylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_n-Hexylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Nitrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Distillate_Oxygen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Hydrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Methane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Ethane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Propane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Butane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Pentane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Hexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Benzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Cyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Heptane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Water_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Methylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Toluene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Octane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Propylcyclopentane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Ethylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_p-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_m-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_o-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Nonane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_i-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Propylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1-Methyl-3-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1-Methyl-4-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1,3,5-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1-Methyl-2-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1,2,4-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_tert-Butylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1,2,3-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Indane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1-Methyl-4-n-propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1,2-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_5-Ethyl-m-xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1,4-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_1,2,3,5-Tetramethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Pentylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_n-Hexylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Nitrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Sidedraw_Oxygen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Hydrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Methane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Ethane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Propane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Butane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Pentane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Hexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Benzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Cyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Heptane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Water_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Methylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Toluene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Octane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Propylcyclopentane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Ethylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_p-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_m-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_o-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Nonane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_i-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Propylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1-Methyl-3-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1-Methyl-4-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1,3,5-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1-Methyl-2-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1,2,4-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_tert-Butylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1,2,3-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Indane_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1-Methyl-4-n-propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1,2-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_5-Ethyl-m-xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1,4-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_1,2,3,5-Tetramethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Pentylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_n-Hexylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Nitrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Split Factors Calculation_Split Factor for Individual Component to Benzene Column C660 Bottoms_Oxygen_Fraction</t>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Hydrogen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Methane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Ethane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Propane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Butane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Pentane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Hexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Benzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Cyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Heptane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Water_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Methylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Toluene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Octane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Propylcyclopentane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Ethylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_p-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_m-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_o-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Nonane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_i-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Propylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1-Methyl-3-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1-Methyl-4-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1,3,5-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1-Methyl-2-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1,2,4-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_tert-Butylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1,2,3-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Indane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1-Methyl-4-n-propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1,2-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_5-Ethyl-m-xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1,4-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_1,2,3,5-Tetramethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Pentylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_n-Hexylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Nitrogen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Oxygen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Hydrogen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Methane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Ethane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Propane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Butane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Pentane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Hexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Benzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Cyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Heptane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Water_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Methylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Toluene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Octane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Propylcyclopentane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Ethylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_p-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_m-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_o-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Nonane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_i-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Propylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1-Methyl-3-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1-Methyl-4-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1,3,5-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1-Methyl-2-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1,2,4-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_tert-Butylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1,2,3-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Indane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1-Methyl-4-n-propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1,2-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_5-Ethyl-m-xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1,4-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_1,2,3,5-Tetramethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Pentylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_n-Hexylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Nitrogen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Distillate (Benzene Drag) Production Rate and Composition_Oxygen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Hydrogen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Methane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Ethane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Propane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Butane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Pentane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Hexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Benzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Cyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Heptane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Water_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Methylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Toluene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Octane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Propylcyclopentane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Ethylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_p-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_m-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_o-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Nonane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_i-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Propylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1-Methyl-3-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1-Methyl-4-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1,3,5-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1-Methyl-2-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1,2,4-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_tert-Butylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1,2,3-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Indane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1-Methyl-4-n-propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1,2-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_5-Ethyl-m-xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1,4-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_1,2,3,5-Tetramethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Pentylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_n-Hexylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Nitrogen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Sidedraw (Benzene )Production Rate and Composition_Oxygen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Hydrogen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Methane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Ethane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Propane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Butane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Pentane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Hexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Benzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Cyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Heptane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Water_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Methylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Toluene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Octane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Propylcyclopentane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Ethylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_p-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_m-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_o-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Nonane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_i-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Propylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1-Methyl-3-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1-Methyl-4-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1,3,5-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1-Methyl-2-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1,2,4-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_tert-Butylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1,2,3-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Indane_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1-Methyl-4-n-propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1,2-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_5-Ethyl-m-xylene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1,4-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_1,2,3,5-Tetramethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Pentylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_n-Hexylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Nitrogen_wt%</t>
+  </si>
+  <si>
+    <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Oxygen_wt%</t>
   </si>
   <si>
     <t>Density_Feed Properties</t>
@@ -667,7 +667,7 @@
     <t>Benzene Column C660 Operation_Column Temp Profile_C660 Tray 23 (Control)_oC</t>
   </si>
   <si>
-    <t>測試001</t>
+    <t>實驗003</t>
   </si>
 </sst>
 </file>
@@ -1688,6 +1688,657 @@
       <c r="A2" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="B2">
+        <v>860.149976792198</v>
+      </c>
+      <c r="C2">
+        <v>10.50263814265</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.0001560296061647585</v>
+      </c>
+      <c r="F2">
+        <v>0.01013693226935849</v>
+      </c>
+      <c r="G2">
+        <v>0.01888568478621171</v>
+      </c>
+      <c r="H2">
+        <v>0.01260516225624811</v>
+      </c>
+      <c r="I2">
+        <v>0.01601406342703039</v>
+      </c>
+      <c r="J2">
+        <v>0.02194432308063946</v>
+      </c>
+      <c r="K2">
+        <v>51.8909040628286</v>
+      </c>
+      <c r="L2">
+        <v>0.01515591578618946</v>
+      </c>
+      <c r="M2">
+        <v>0.02524348371168523</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.01142406720613794</v>
+      </c>
+      <c r="P2">
+        <v>43.82592709244869</v>
+      </c>
+      <c r="Q2">
+        <v>0.07057005464189035</v>
+      </c>
+      <c r="R2">
+        <v>0.02011443940751436</v>
+      </c>
+      <c r="S2">
+        <v>0.01645246089872317</v>
+      </c>
+      <c r="T2">
+        <v>2.694645944332389</v>
+      </c>
+      <c r="U2">
+        <v>0.6513623160981152</v>
+      </c>
+      <c r="V2">
+        <v>1.254474996343305</v>
+      </c>
+      <c r="W2">
+        <v>0.2843395650946281</v>
+      </c>
+      <c r="X2">
+        <v>0.03603706073101891</v>
+      </c>
+      <c r="Y2">
+        <v>2.266302503694325e-07</v>
+      </c>
+      <c r="Z2">
+        <v>0.07997754167662323</v>
+      </c>
+      <c r="AA2">
+        <v>4.481919311189375e-08</v>
+      </c>
+      <c r="AB2">
+        <v>0.001323851141051866</v>
+      </c>
+      <c r="AC2">
+        <v>0.001323552920841432</v>
+      </c>
+      <c r="AD2">
+        <v>0.002646895837197344</v>
+      </c>
+      <c r="AE2">
+        <v>0.0007200200454007705</v>
+      </c>
+      <c r="AF2">
+        <v>0.0007200321639140397</v>
+      </c>
+      <c r="AG2">
+        <v>0.006390527745710012</v>
+      </c>
+      <c r="AH2">
+        <v>3.678720800170465e-08</v>
+      </c>
+      <c r="AI2">
+        <v>1.786225570742168e-09</v>
+      </c>
+      <c r="AJ2">
+        <v>0.01199296093036343</v>
+      </c>
+      <c r="AK2">
+        <v>0.003042924631137065</v>
+      </c>
+      <c r="AL2">
+        <v>5.473735642671148e-09</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>6.968508367107445e-11</v>
+      </c>
+      <c r="AO2">
+        <v>3.24458124776844e-12</v>
+      </c>
+      <c r="AP2">
+        <v>3.548595953018185e-15</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>2.374277431506061</v>
+      </c>
+      <c r="AU2">
+        <v>37.08819795504476</v>
+      </c>
+      <c r="AV2">
+        <v>19.40930829805101</v>
+      </c>
+      <c r="AW2">
+        <v>3.257152012377421</v>
+      </c>
+      <c r="AX2">
+        <v>1.846980081628854</v>
+      </c>
+      <c r="AY2">
+        <v>0.5926894907878384</v>
+      </c>
+      <c r="AZ2">
+        <v>35.22112322429093</v>
+      </c>
+      <c r="BA2">
+        <v>0.06603783434177769</v>
+      </c>
+      <c r="BB2">
+        <v>0.01256043023184407</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>3.598119353793486e-05</v>
+      </c>
+      <c r="BE2">
+        <v>1.109838512123157e-06</v>
+      </c>
+      <c r="BF2">
+        <v>5.304101400793403e-08</v>
+      </c>
+      <c r="BG2">
+        <v>6.321861022538544e-14</v>
+      </c>
+      <c r="BH2">
+        <v>1.96414060857009e-14</v>
+      </c>
+      <c r="BI2">
+        <v>8.915432206277642e-17</v>
+      </c>
+      <c r="BJ2">
+        <v>2.9570200114361e-18</v>
+      </c>
+      <c r="BK2">
+        <v>1.85246051386001e-18</v>
+      </c>
+      <c r="BL2">
+        <v>3.30462990905286e-21</v>
+      </c>
+      <c r="BM2">
+        <v>4.86417743377968e-19</v>
+      </c>
+      <c r="BN2">
+        <v>1.7375697206435e-29</v>
+      </c>
+      <c r="BO2">
+        <v>1.504381490500919e-21</v>
+      </c>
+      <c r="BP2">
+        <v>2.725762620840148e-07</v>
+      </c>
+      <c r="BQ2">
+        <v>5.733083153442799e-27</v>
+      </c>
+      <c r="BR2">
+        <v>6.744877397481241e-28</v>
+      </c>
+      <c r="BS2">
+        <v>0.02330331925680501</v>
+      </c>
+      <c r="BT2">
+        <v>1.444122625448874e-28</v>
+      </c>
+      <c r="BU2">
+        <v>0.004061448827644745</v>
+      </c>
+      <c r="BV2">
+        <v>7.965030081456035e-27</v>
+      </c>
+      <c r="BW2">
+        <v>3.049372996383169e-07</v>
+      </c>
+      <c r="BX2">
+        <v>1.621206382460019e-08</v>
+      </c>
+      <c r="BY2">
+        <v>0.0746373847162244</v>
+      </c>
+      <c r="BZ2">
+        <v>0.02963331801865311</v>
+      </c>
+      <c r="CA2">
+        <v>3.259360274496246e-08</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>5.100425130322694e-10</v>
+      </c>
+      <c r="CD2">
+        <v>1.770775644007388e-11</v>
+      </c>
+      <c r="CE2">
+        <v>3.192594199190486e-14</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0.003885208775175666</v>
+      </c>
+      <c r="CJ2">
+        <v>0.2671393820041711</v>
+      </c>
+      <c r="CK2">
+        <v>0.50131926211958</v>
+      </c>
+      <c r="CL2">
+        <v>0.3301811952197249</v>
+      </c>
+      <c r="CM2">
+        <v>0.4063469901985659</v>
+      </c>
+      <c r="CN2">
+        <v>0.4470858410065107</v>
+      </c>
+      <c r="CO2">
+        <v>97.89075846151519</v>
+      </c>
+      <c r="CP2">
+        <v>0.1127851555448053</v>
+      </c>
+      <c r="CQ2">
+        <v>0.04027240048860816</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0.0001914775465636155</v>
+      </c>
+      <c r="CT2">
+        <v>1.04471937066931e-05</v>
+      </c>
+      <c r="CU2">
+        <v>4.251977071096582e-07</v>
+      </c>
+      <c r="CV2">
+        <v>8.190143842029299e-13</v>
+      </c>
+      <c r="CW2">
+        <v>2.571459860202009e-13</v>
+      </c>
+      <c r="CX2">
+        <v>2.075334379901612e-15</v>
+      </c>
+      <c r="CY2">
+        <v>7.576835599457724e-17</v>
+      </c>
+      <c r="CZ2">
+        <v>4.953802094844848e-17</v>
+      </c>
+      <c r="DA2">
+        <v>1.104111219741336e-19</v>
+      </c>
+      <c r="DB2">
+        <v>1.260323302526698e-17</v>
+      </c>
+      <c r="DC2">
+        <v>9.613115443080227e-28</v>
+      </c>
+      <c r="DD2">
+        <v>4.262586525772323e-20</v>
+      </c>
+      <c r="DE2">
+        <v>3.444759779144732e-11</v>
+      </c>
+      <c r="DF2">
+        <v>2.605835713496185e-25</v>
+      </c>
+      <c r="DG2">
+        <v>5.345659911225984e-26</v>
+      </c>
+      <c r="DH2">
+        <v>2.746200974387129e-06</v>
+      </c>
+      <c r="DI2">
+        <v>1.572011010104018e-26</v>
+      </c>
+      <c r="DJ2">
+        <v>7.208008847632248e-07</v>
+      </c>
+      <c r="DK2">
+        <v>3.270662520169586e-25</v>
+      </c>
+      <c r="DL2">
+        <v>4.382523754511119e-11</v>
+      </c>
+      <c r="DM2">
+        <v>1.511240284370433e-12</v>
+      </c>
+      <c r="DN2">
+        <v>1.711150625249026e-05</v>
+      </c>
+      <c r="DO2">
+        <v>3.174594555123051e-06</v>
+      </c>
+      <c r="DP2">
+        <v>6.083592622056691e-12</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>7.872101819078249e-14</v>
+      </c>
+      <c r="DS2">
+        <v>3.306468566924609e-15</v>
+      </c>
+      <c r="DT2">
+        <v>4.720765192399481e-18</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>2.821580043168436e-07</v>
+      </c>
+      <c r="DY2">
+        <v>7.120067800181106e-05</v>
+      </c>
+      <c r="DZ2">
+        <v>0.0003571587649850076</v>
+      </c>
+      <c r="EA2">
+        <v>0.0006773258084278773</v>
+      </c>
+      <c r="EB2">
+        <v>0.001893111650979386</v>
+      </c>
+      <c r="EC2">
+        <v>0.01105210759339059</v>
+      </c>
+      <c r="ED2">
+        <v>99.91080667198013</v>
+      </c>
+      <c r="EE2">
+        <v>0.02270748046733686</v>
+      </c>
+      <c r="EF2">
+        <v>0.04904002250976155</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0.002241434334042306</v>
+      </c>
+      <c r="EI2">
+        <v>0.001131116454835878</v>
+      </c>
+      <c r="EJ2">
+        <v>2.208697211813323e-05</v>
+      </c>
+      <c r="EK2">
+        <v>4.463340582218041e-10</v>
+      </c>
+      <c r="EL2">
+        <v>1.671811525829746e-10</v>
+      </c>
+      <c r="EM2">
+        <v>9.924497777091755e-12</v>
+      </c>
+      <c r="EN2">
+        <v>5.191441885962488e-13</v>
+      </c>
+      <c r="EO2">
+        <v>4.235217554458114e-13</v>
+      </c>
+      <c r="EP2">
+        <v>2.315230503936218e-15</v>
+      </c>
+      <c r="EQ2">
+        <v>6.708878702522925e-14</v>
+      </c>
+      <c r="ER2">
+        <v>4.726924262734978e-23</v>
+      </c>
+      <c r="ES2">
+        <v>7.765222649190452e-16</v>
+      </c>
+      <c r="ET2">
+        <v>4.236458119622021e-26</v>
+      </c>
+      <c r="EU2">
+        <v>2.253472147899462e-20</v>
+      </c>
+      <c r="EV2">
+        <v>1.187067142819756e-20</v>
+      </c>
+      <c r="EW2">
+        <v>1.108563687369224e-23</v>
+      </c>
+      <c r="EX2">
+        <v>5.891164231943986e-21</v>
+      </c>
+      <c r="EY2">
+        <v>6.641579496339846e-26</v>
+      </c>
+      <c r="EZ2">
+        <v>3.527014442181506e-20</v>
+      </c>
+      <c r="FA2">
+        <v>3.06181592817544e-12</v>
+      </c>
+      <c r="FB2">
+        <v>1.197487613519549e-13</v>
+      </c>
+      <c r="FC2">
+        <v>4.492126965158282e-31</v>
+      </c>
+      <c r="FD2">
+        <v>2.038478783631321e-30</v>
+      </c>
+      <c r="FE2">
+        <v>3.509514417288422e-13</v>
+      </c>
+      <c r="FF2">
+        <v>0</v>
+      </c>
+      <c r="FG2">
+        <v>5.60923385418081e-15</v>
+      </c>
+      <c r="FH2">
+        <v>3.219766761212188e-16</v>
+      </c>
+      <c r="FI2">
+        <v>2.565067239221311e-19</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>1.036487973991517e-08</v>
+      </c>
+      <c r="FN2">
+        <v>8.612467164958518e-07</v>
+      </c>
+      <c r="FO2">
+        <v>1.180694849404839e-06</v>
+      </c>
+      <c r="FP2">
+        <v>8.47054659532895e-28</v>
+      </c>
+      <c r="FQ2">
+        <v>4.431701632946878e-20</v>
+      </c>
+      <c r="FR2">
+        <v>1.870097889533394e-12</v>
+      </c>
+      <c r="FS2">
+        <v>0.004453738673298274</v>
+      </c>
+      <c r="FT2">
+        <v>3.619899748463236e-07</v>
+      </c>
+      <c r="FU2">
+        <v>0.0001293253512681486</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="FW2">
+        <v>0.02110182850326763</v>
+      </c>
+      <c r="FX2">
+        <v>89.48688182863212</v>
+      </c>
+      <c r="FY2">
+        <v>0.1440749235788363</v>
+      </c>
+      <c r="FZ2">
+        <v>0.04107159859484091</v>
+      </c>
+      <c r="GA2">
+        <v>0.03359421837415139</v>
+      </c>
+      <c r="GB2">
+        <v>5.502187475306445</v>
+      </c>
+      <c r="GC2">
+        <v>1.330014277036896</v>
+      </c>
+      <c r="GD2">
+        <v>2.5615078030874</v>
+      </c>
+      <c r="GE2">
+        <v>0.5805918944892606</v>
+      </c>
+      <c r="GF2">
+        <v>0.0735839395220419</v>
+      </c>
+      <c r="GG2">
+        <v>4.627554605943586e-07</v>
+      </c>
+      <c r="GH2">
+        <v>0.1633058432201342</v>
+      </c>
+      <c r="GI2">
+        <v>9.151081345683176e-08</v>
+      </c>
+      <c r="GJ2">
+        <v>0.002703166693489443</v>
+      </c>
+      <c r="GK2">
+        <v>0.002702557758757152</v>
+      </c>
+      <c r="GL2">
+        <v>0.005404246016558509</v>
+      </c>
+      <c r="GM2">
+        <v>0.001470206237708614</v>
+      </c>
+      <c r="GN2">
+        <v>0.001470135725824282</v>
+      </c>
+      <c r="GO2">
+        <v>0.01304879470232423</v>
+      </c>
+      <c r="GP2">
+        <v>7.51062781283587e-08</v>
+      </c>
+      <c r="GQ2">
+        <v>3.646892957106439e-09</v>
+      </c>
+      <c r="GR2">
+        <v>0.02448634005781359</v>
+      </c>
+      <c r="GS2">
+        <v>0.006212799795236118</v>
+      </c>
+      <c r="GT2">
+        <v>1.117566781442137e-08</v>
+      </c>
+      <c r="GU2">
+        <v>0</v>
+      </c>
+      <c r="GV2">
+        <v>1.422731141471642e-10</v>
+      </c>
+      <c r="GW2">
+        <v>6.624353953241997e-12</v>
+      </c>
+      <c r="GX2">
+        <v>7.244934950989587e-15</v>
+      </c>
+      <c r="GY2">
+        <v>0</v>
+      </c>
+      <c r="GZ2">
+        <v>0</v>
+      </c>
+      <c r="HA2">
+        <v>0.877142071723938</v>
+      </c>
+      <c r="HB2">
+        <v>0.5240792632102966</v>
+      </c>
+      <c r="HC2">
+        <v>0.8727892637252808</v>
+      </c>
+      <c r="HD2">
+        <v>0.8837210536003113</v>
+      </c>
+      <c r="HE2">
+        <v>0.870343029499054</v>
+      </c>
+      <c r="HF2">
+        <v>110.7170104980469</v>
+      </c>
+      <c r="HG2">
+        <v>11.2144021987915</v>
+      </c>
+      <c r="HH2">
+        <v>10.539626121521</v>
+      </c>
+      <c r="HI2">
+        <v>86.49790954589844</v>
+      </c>
+      <c r="HJ2">
+        <v>89.44966888427734</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/log/c660_log.xlsx
+++ b/log/c660_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Benzene Column C660 Operation_Specifications_Spec 2 : NA in Benzene_ppmw</t>
   </si>
@@ -668,6 +668,12 @@
   </si>
   <si>
     <t>實驗003</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HJ2"/>
+  <dimension ref="A1:HJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2340,6 +2346,1318 @@
         <v>89.44966888427734</v>
       </c>
     </row>
+    <row r="3" spans="1:218">
+      <c r="A3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3">
+        <v>860.149976792198</v>
+      </c>
+      <c r="C3">
+        <v>10.50263814265</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.0001560296061647585</v>
+      </c>
+      <c r="F3">
+        <v>0.01013693226935849</v>
+      </c>
+      <c r="G3">
+        <v>0.01888568478621171</v>
+      </c>
+      <c r="H3">
+        <v>0.01260516225624811</v>
+      </c>
+      <c r="I3">
+        <v>0.01601406342703039</v>
+      </c>
+      <c r="J3">
+        <v>0.02194432308063946</v>
+      </c>
+      <c r="K3">
+        <v>51.8909040628286</v>
+      </c>
+      <c r="L3">
+        <v>0.01515591578618946</v>
+      </c>
+      <c r="M3">
+        <v>0.02524348371168523</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.01142406720613794</v>
+      </c>
+      <c r="P3">
+        <v>43.82592709244869</v>
+      </c>
+      <c r="Q3">
+        <v>0.07057005464189035</v>
+      </c>
+      <c r="R3">
+        <v>0.02011443940751436</v>
+      </c>
+      <c r="S3">
+        <v>0.01645246089872317</v>
+      </c>
+      <c r="T3">
+        <v>2.694645944332389</v>
+      </c>
+      <c r="U3">
+        <v>0.6513623160981152</v>
+      </c>
+      <c r="V3">
+        <v>1.254474996343305</v>
+      </c>
+      <c r="W3">
+        <v>0.2843395650946281</v>
+      </c>
+      <c r="X3">
+        <v>0.03603706073101891</v>
+      </c>
+      <c r="Y3">
+        <v>2.266302503694325e-07</v>
+      </c>
+      <c r="Z3">
+        <v>0.07997754167662323</v>
+      </c>
+      <c r="AA3">
+        <v>4.481919311189375e-08</v>
+      </c>
+      <c r="AB3">
+        <v>0.001323851141051866</v>
+      </c>
+      <c r="AC3">
+        <v>0.001323552920841432</v>
+      </c>
+      <c r="AD3">
+        <v>0.002646895837197344</v>
+      </c>
+      <c r="AE3">
+        <v>0.0007200200454007705</v>
+      </c>
+      <c r="AF3">
+        <v>0.0007200321639140397</v>
+      </c>
+      <c r="AG3">
+        <v>0.006390527745710012</v>
+      </c>
+      <c r="AH3">
+        <v>3.678720800170465e-08</v>
+      </c>
+      <c r="AI3">
+        <v>1.786225570742168e-09</v>
+      </c>
+      <c r="AJ3">
+        <v>0.01199296093036343</v>
+      </c>
+      <c r="AK3">
+        <v>0.003042924631137065</v>
+      </c>
+      <c r="AL3">
+        <v>5.473735642671148e-09</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>6.968508367107445e-11</v>
+      </c>
+      <c r="AO3">
+        <v>3.24458124776844e-12</v>
+      </c>
+      <c r="AP3">
+        <v>3.548595953018185e-15</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>2.374277431506061</v>
+      </c>
+      <c r="AU3">
+        <v>37.08819795504476</v>
+      </c>
+      <c r="AV3">
+        <v>19.40930829805101</v>
+      </c>
+      <c r="AW3">
+        <v>3.257152012377421</v>
+      </c>
+      <c r="AX3">
+        <v>1.846980081628854</v>
+      </c>
+      <c r="AY3">
+        <v>0.5926894907878384</v>
+      </c>
+      <c r="AZ3">
+        <v>35.22112322429093</v>
+      </c>
+      <c r="BA3">
+        <v>0.06603783434177769</v>
+      </c>
+      <c r="BB3">
+        <v>0.01256043023184407</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>3.598119353793486e-05</v>
+      </c>
+      <c r="BE3">
+        <v>1.109838512123157e-06</v>
+      </c>
+      <c r="BF3">
+        <v>5.304101400793403e-08</v>
+      </c>
+      <c r="BG3">
+        <v>6.321861022538544e-14</v>
+      </c>
+      <c r="BH3">
+        <v>1.96414060857009e-14</v>
+      </c>
+      <c r="BI3">
+        <v>8.915432206277642e-17</v>
+      </c>
+      <c r="BJ3">
+        <v>2.9570200114361e-18</v>
+      </c>
+      <c r="BK3">
+        <v>1.85246051386001e-18</v>
+      </c>
+      <c r="BL3">
+        <v>3.30462990905286e-21</v>
+      </c>
+      <c r="BM3">
+        <v>4.86417743377968e-19</v>
+      </c>
+      <c r="BN3">
+        <v>1.7375697206435e-29</v>
+      </c>
+      <c r="BO3">
+        <v>1.504381490500919e-21</v>
+      </c>
+      <c r="BP3">
+        <v>2.725762620840148e-07</v>
+      </c>
+      <c r="BQ3">
+        <v>5.733083153442799e-27</v>
+      </c>
+      <c r="BR3">
+        <v>6.744877397481241e-28</v>
+      </c>
+      <c r="BS3">
+        <v>0.02330331925680501</v>
+      </c>
+      <c r="BT3">
+        <v>1.444122625448874e-28</v>
+      </c>
+      <c r="BU3">
+        <v>0.004061448827644745</v>
+      </c>
+      <c r="BV3">
+        <v>7.965030081456035e-27</v>
+      </c>
+      <c r="BW3">
+        <v>3.049372996383169e-07</v>
+      </c>
+      <c r="BX3">
+        <v>1.621206382460019e-08</v>
+      </c>
+      <c r="BY3">
+        <v>0.0746373847162244</v>
+      </c>
+      <c r="BZ3">
+        <v>0.02963331801865311</v>
+      </c>
+      <c r="CA3">
+        <v>3.259360274496246e-08</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>5.100425130322694e-10</v>
+      </c>
+      <c r="CD3">
+        <v>1.770775644007388e-11</v>
+      </c>
+      <c r="CE3">
+        <v>3.192594199190486e-14</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0.003885208775175666</v>
+      </c>
+      <c r="CJ3">
+        <v>0.2671393820041711</v>
+      </c>
+      <c r="CK3">
+        <v>0.50131926211958</v>
+      </c>
+      <c r="CL3">
+        <v>0.3301811952197249</v>
+      </c>
+      <c r="CM3">
+        <v>0.4063469901985659</v>
+      </c>
+      <c r="CN3">
+        <v>0.4470858410065107</v>
+      </c>
+      <c r="CO3">
+        <v>97.89075846151519</v>
+      </c>
+      <c r="CP3">
+        <v>0.1127851555448053</v>
+      </c>
+      <c r="CQ3">
+        <v>0.04027240048860816</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0.0001914775465636155</v>
+      </c>
+      <c r="CT3">
+        <v>1.04471937066931e-05</v>
+      </c>
+      <c r="CU3">
+        <v>4.251977071096582e-07</v>
+      </c>
+      <c r="CV3">
+        <v>8.190143842029299e-13</v>
+      </c>
+      <c r="CW3">
+        <v>2.571459860202009e-13</v>
+      </c>
+      <c r="CX3">
+        <v>2.075334379901612e-15</v>
+      </c>
+      <c r="CY3">
+        <v>7.576835599457724e-17</v>
+      </c>
+      <c r="CZ3">
+        <v>4.953802094844848e-17</v>
+      </c>
+      <c r="DA3">
+        <v>1.104111219741336e-19</v>
+      </c>
+      <c r="DB3">
+        <v>1.260323302526698e-17</v>
+      </c>
+      <c r="DC3">
+        <v>9.613115443080227e-28</v>
+      </c>
+      <c r="DD3">
+        <v>4.262586525772323e-20</v>
+      </c>
+      <c r="DE3">
+        <v>3.444759779144732e-11</v>
+      </c>
+      <c r="DF3">
+        <v>2.605835713496185e-25</v>
+      </c>
+      <c r="DG3">
+        <v>5.345659911225984e-26</v>
+      </c>
+      <c r="DH3">
+        <v>2.746200974387129e-06</v>
+      </c>
+      <c r="DI3">
+        <v>1.572011010104018e-26</v>
+      </c>
+      <c r="DJ3">
+        <v>7.208008847632248e-07</v>
+      </c>
+      <c r="DK3">
+        <v>3.270662520169586e-25</v>
+      </c>
+      <c r="DL3">
+        <v>4.382523754511119e-11</v>
+      </c>
+      <c r="DM3">
+        <v>1.511240284370433e-12</v>
+      </c>
+      <c r="DN3">
+        <v>1.711150625249026e-05</v>
+      </c>
+      <c r="DO3">
+        <v>3.174594555123051e-06</v>
+      </c>
+      <c r="DP3">
+        <v>6.083592622056691e-12</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>7.872101819078249e-14</v>
+      </c>
+      <c r="DS3">
+        <v>3.306468566924609e-15</v>
+      </c>
+      <c r="DT3">
+        <v>4.720765192399481e-18</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>2.821580043168436e-07</v>
+      </c>
+      <c r="DY3">
+        <v>7.120067800181106e-05</v>
+      </c>
+      <c r="DZ3">
+        <v>0.0003571587649850076</v>
+      </c>
+      <c r="EA3">
+        <v>0.0006773258084278773</v>
+      </c>
+      <c r="EB3">
+        <v>0.001893111650979386</v>
+      </c>
+      <c r="EC3">
+        <v>0.01105210759339059</v>
+      </c>
+      <c r="ED3">
+        <v>99.91080667198013</v>
+      </c>
+      <c r="EE3">
+        <v>0.02270748046733686</v>
+      </c>
+      <c r="EF3">
+        <v>0.04904002250976155</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0.002241434334042306</v>
+      </c>
+      <c r="EI3">
+        <v>0.001131116454835878</v>
+      </c>
+      <c r="EJ3">
+        <v>2.208697211813323e-05</v>
+      </c>
+      <c r="EK3">
+        <v>4.463340582218041e-10</v>
+      </c>
+      <c r="EL3">
+        <v>1.671811525829746e-10</v>
+      </c>
+      <c r="EM3">
+        <v>9.924497777091755e-12</v>
+      </c>
+      <c r="EN3">
+        <v>5.191441885962488e-13</v>
+      </c>
+      <c r="EO3">
+        <v>4.235217554458114e-13</v>
+      </c>
+      <c r="EP3">
+        <v>2.315230503936218e-15</v>
+      </c>
+      <c r="EQ3">
+        <v>6.708878702522925e-14</v>
+      </c>
+      <c r="ER3">
+        <v>4.726924262734978e-23</v>
+      </c>
+      <c r="ES3">
+        <v>7.765222649190452e-16</v>
+      </c>
+      <c r="ET3">
+        <v>4.236458119622021e-26</v>
+      </c>
+      <c r="EU3">
+        <v>2.253472147899462e-20</v>
+      </c>
+      <c r="EV3">
+        <v>1.187067142819756e-20</v>
+      </c>
+      <c r="EW3">
+        <v>1.108563687369224e-23</v>
+      </c>
+      <c r="EX3">
+        <v>5.891164231943986e-21</v>
+      </c>
+      <c r="EY3">
+        <v>6.641579496339846e-26</v>
+      </c>
+      <c r="EZ3">
+        <v>3.527014442181506e-20</v>
+      </c>
+      <c r="FA3">
+        <v>3.06181592817544e-12</v>
+      </c>
+      <c r="FB3">
+        <v>1.197487613519549e-13</v>
+      </c>
+      <c r="FC3">
+        <v>4.492126965158282e-31</v>
+      </c>
+      <c r="FD3">
+        <v>2.038478783631321e-30</v>
+      </c>
+      <c r="FE3">
+        <v>3.509514417288422e-13</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>5.60923385418081e-15</v>
+      </c>
+      <c r="FH3">
+        <v>3.219766761212188e-16</v>
+      </c>
+      <c r="FI3">
+        <v>2.565067239221311e-19</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.036487973991517e-08</v>
+      </c>
+      <c r="FN3">
+        <v>8.612467164958518e-07</v>
+      </c>
+      <c r="FO3">
+        <v>1.180694849404839e-06</v>
+      </c>
+      <c r="FP3">
+        <v>8.47054659532895e-28</v>
+      </c>
+      <c r="FQ3">
+        <v>4.431701632946878e-20</v>
+      </c>
+      <c r="FR3">
+        <v>1.870097889533394e-12</v>
+      </c>
+      <c r="FS3">
+        <v>0.004453738673298274</v>
+      </c>
+      <c r="FT3">
+        <v>3.619899748463236e-07</v>
+      </c>
+      <c r="FU3">
+        <v>0.0001293253512681486</v>
+      </c>
+      <c r="FV3">
+        <v>0</v>
+      </c>
+      <c r="FW3">
+        <v>0.02110182850326763</v>
+      </c>
+      <c r="FX3">
+        <v>89.48688182863212</v>
+      </c>
+      <c r="FY3">
+        <v>0.1440749235788363</v>
+      </c>
+      <c r="FZ3">
+        <v>0.04107159859484091</v>
+      </c>
+      <c r="GA3">
+        <v>0.03359421837415139</v>
+      </c>
+      <c r="GB3">
+        <v>5.502187475306445</v>
+      </c>
+      <c r="GC3">
+        <v>1.330014277036896</v>
+      </c>
+      <c r="GD3">
+        <v>2.5615078030874</v>
+      </c>
+      <c r="GE3">
+        <v>0.5805918944892606</v>
+      </c>
+      <c r="GF3">
+        <v>0.0735839395220419</v>
+      </c>
+      <c r="GG3">
+        <v>4.627554605943586e-07</v>
+      </c>
+      <c r="GH3">
+        <v>0.1633058432201342</v>
+      </c>
+      <c r="GI3">
+        <v>9.151081345683176e-08</v>
+      </c>
+      <c r="GJ3">
+        <v>0.002703166693489443</v>
+      </c>
+      <c r="GK3">
+        <v>0.002702557758757152</v>
+      </c>
+      <c r="GL3">
+        <v>0.005404246016558509</v>
+      </c>
+      <c r="GM3">
+        <v>0.001470206237708614</v>
+      </c>
+      <c r="GN3">
+        <v>0.001470135725824282</v>
+      </c>
+      <c r="GO3">
+        <v>0.01304879470232423</v>
+      </c>
+      <c r="GP3">
+        <v>7.51062781283587e-08</v>
+      </c>
+      <c r="GQ3">
+        <v>3.646892957106439e-09</v>
+      </c>
+      <c r="GR3">
+        <v>0.02448634005781359</v>
+      </c>
+      <c r="GS3">
+        <v>0.006212799795236118</v>
+      </c>
+      <c r="GT3">
+        <v>1.117566781442137e-08</v>
+      </c>
+      <c r="GU3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>1.422731141471642e-10</v>
+      </c>
+      <c r="GW3">
+        <v>6.624353953241997e-12</v>
+      </c>
+      <c r="GX3">
+        <v>7.244934950989587e-15</v>
+      </c>
+      <c r="GY3">
+        <v>0</v>
+      </c>
+      <c r="GZ3">
+        <v>0</v>
+      </c>
+      <c r="HA3">
+        <v>0.877142071723938</v>
+      </c>
+      <c r="HB3">
+        <v>0.5240792632102966</v>
+      </c>
+      <c r="HC3">
+        <v>0.8727892637252808</v>
+      </c>
+      <c r="HD3">
+        <v>0.8837210536003113</v>
+      </c>
+      <c r="HE3">
+        <v>0.870343029499054</v>
+      </c>
+      <c r="HF3">
+        <v>110.7170104980469</v>
+      </c>
+      <c r="HG3">
+        <v>11.2144021987915</v>
+      </c>
+      <c r="HH3">
+        <v>10.539626121521</v>
+      </c>
+      <c r="HI3">
+        <v>86.49790954589844</v>
+      </c>
+      <c r="HJ3">
+        <v>89.44966888427734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:218">
+      <c r="A4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4">
+        <v>860.149976792198</v>
+      </c>
+      <c r="C4">
+        <v>10.50263814265</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.0001560296061647585</v>
+      </c>
+      <c r="F4">
+        <v>0.01013693226935849</v>
+      </c>
+      <c r="G4">
+        <v>0.01888568478621171</v>
+      </c>
+      <c r="H4">
+        <v>0.01260516225624811</v>
+      </c>
+      <c r="I4">
+        <v>0.01601406342703039</v>
+      </c>
+      <c r="J4">
+        <v>0.02194432308063946</v>
+      </c>
+      <c r="K4">
+        <v>51.8909040628286</v>
+      </c>
+      <c r="L4">
+        <v>0.01515591578618946</v>
+      </c>
+      <c r="M4">
+        <v>0.02524348371168523</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.01142406720613794</v>
+      </c>
+      <c r="P4">
+        <v>43.82592709244869</v>
+      </c>
+      <c r="Q4">
+        <v>0.07057005464189035</v>
+      </c>
+      <c r="R4">
+        <v>0.02011443940751436</v>
+      </c>
+      <c r="S4">
+        <v>0.01645246089872317</v>
+      </c>
+      <c r="T4">
+        <v>2.694645944332389</v>
+      </c>
+      <c r="U4">
+        <v>0.6513623160981152</v>
+      </c>
+      <c r="V4">
+        <v>1.254474996343305</v>
+      </c>
+      <c r="W4">
+        <v>0.2843395650946281</v>
+      </c>
+      <c r="X4">
+        <v>0.03603706073101891</v>
+      </c>
+      <c r="Y4">
+        <v>2.266302503694325e-07</v>
+      </c>
+      <c r="Z4">
+        <v>0.07997754167662323</v>
+      </c>
+      <c r="AA4">
+        <v>4.481919311189375e-08</v>
+      </c>
+      <c r="AB4">
+        <v>0.001323851141051866</v>
+      </c>
+      <c r="AC4">
+        <v>0.001323552920841432</v>
+      </c>
+      <c r="AD4">
+        <v>0.002646895837197344</v>
+      </c>
+      <c r="AE4">
+        <v>0.0007200200454007705</v>
+      </c>
+      <c r="AF4">
+        <v>0.0007200321639140397</v>
+      </c>
+      <c r="AG4">
+        <v>0.006390527745710012</v>
+      </c>
+      <c r="AH4">
+        <v>3.678720800170465e-08</v>
+      </c>
+      <c r="AI4">
+        <v>1.786225570742168e-09</v>
+      </c>
+      <c r="AJ4">
+        <v>0.01199296093036343</v>
+      </c>
+      <c r="AK4">
+        <v>0.003042924631137065</v>
+      </c>
+      <c r="AL4">
+        <v>5.473735642671148e-09</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>6.968508367107445e-11</v>
+      </c>
+      <c r="AO4">
+        <v>3.24458124776844e-12</v>
+      </c>
+      <c r="AP4">
+        <v>3.548595953018185e-15</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>2.374277431506061</v>
+      </c>
+      <c r="AU4">
+        <v>37.08819795504476</v>
+      </c>
+      <c r="AV4">
+        <v>19.40930829805101</v>
+      </c>
+      <c r="AW4">
+        <v>3.257152012377421</v>
+      </c>
+      <c r="AX4">
+        <v>1.846980081628854</v>
+      </c>
+      <c r="AY4">
+        <v>0.5926894907878384</v>
+      </c>
+      <c r="AZ4">
+        <v>35.22112322429093</v>
+      </c>
+      <c r="BA4">
+        <v>0.06603783434177769</v>
+      </c>
+      <c r="BB4">
+        <v>0.01256043023184407</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>3.598119353793486e-05</v>
+      </c>
+      <c r="BE4">
+        <v>1.109838512123157e-06</v>
+      </c>
+      <c r="BF4">
+        <v>5.304101400793403e-08</v>
+      </c>
+      <c r="BG4">
+        <v>6.321861022538544e-14</v>
+      </c>
+      <c r="BH4">
+        <v>1.96414060857009e-14</v>
+      </c>
+      <c r="BI4">
+        <v>8.915432206277642e-17</v>
+      </c>
+      <c r="BJ4">
+        <v>2.9570200114361e-18</v>
+      </c>
+      <c r="BK4">
+        <v>1.85246051386001e-18</v>
+      </c>
+      <c r="BL4">
+        <v>3.30462990905286e-21</v>
+      </c>
+      <c r="BM4">
+        <v>4.86417743377968e-19</v>
+      </c>
+      <c r="BN4">
+        <v>1.7375697206435e-29</v>
+      </c>
+      <c r="BO4">
+        <v>1.504381490500919e-21</v>
+      </c>
+      <c r="BP4">
+        <v>2.725762620840148e-07</v>
+      </c>
+      <c r="BQ4">
+        <v>5.733083153442799e-27</v>
+      </c>
+      <c r="BR4">
+        <v>6.744877397481241e-28</v>
+      </c>
+      <c r="BS4">
+        <v>0.02330331925680501</v>
+      </c>
+      <c r="BT4">
+        <v>1.444122625448874e-28</v>
+      </c>
+      <c r="BU4">
+        <v>0.004061448827644745</v>
+      </c>
+      <c r="BV4">
+        <v>7.965030081456035e-27</v>
+      </c>
+      <c r="BW4">
+        <v>3.049372996383169e-07</v>
+      </c>
+      <c r="BX4">
+        <v>1.621206382460019e-08</v>
+      </c>
+      <c r="BY4">
+        <v>0.0746373847162244</v>
+      </c>
+      <c r="BZ4">
+        <v>0.02963331801865311</v>
+      </c>
+      <c r="CA4">
+        <v>3.259360274496246e-08</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>5.100425130322694e-10</v>
+      </c>
+      <c r="CD4">
+        <v>1.770775644007388e-11</v>
+      </c>
+      <c r="CE4">
+        <v>3.192594199190486e-14</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0.003885208775175666</v>
+      </c>
+      <c r="CJ4">
+        <v>0.2671393820041711</v>
+      </c>
+      <c r="CK4">
+        <v>0.50131926211958</v>
+      </c>
+      <c r="CL4">
+        <v>0.3301811952197249</v>
+      </c>
+      <c r="CM4">
+        <v>0.4063469901985659</v>
+      </c>
+      <c r="CN4">
+        <v>0.4470858410065107</v>
+      </c>
+      <c r="CO4">
+        <v>97.89075846151519</v>
+      </c>
+      <c r="CP4">
+        <v>0.1127851555448053</v>
+      </c>
+      <c r="CQ4">
+        <v>0.04027240048860816</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0.0001914775465636155</v>
+      </c>
+      <c r="CT4">
+        <v>1.04471937066931e-05</v>
+      </c>
+      <c r="CU4">
+        <v>4.251977071096582e-07</v>
+      </c>
+      <c r="CV4">
+        <v>8.190143842029299e-13</v>
+      </c>
+      <c r="CW4">
+        <v>2.571459860202009e-13</v>
+      </c>
+      <c r="CX4">
+        <v>2.075334379901612e-15</v>
+      </c>
+      <c r="CY4">
+        <v>7.576835599457724e-17</v>
+      </c>
+      <c r="CZ4">
+        <v>4.953802094844848e-17</v>
+      </c>
+      <c r="DA4">
+        <v>1.104111219741336e-19</v>
+      </c>
+      <c r="DB4">
+        <v>1.260323302526698e-17</v>
+      </c>
+      <c r="DC4">
+        <v>9.613115443080227e-28</v>
+      </c>
+      <c r="DD4">
+        <v>4.262586525772323e-20</v>
+      </c>
+      <c r="DE4">
+        <v>3.444759779144732e-11</v>
+      </c>
+      <c r="DF4">
+        <v>2.605835713496185e-25</v>
+      </c>
+      <c r="DG4">
+        <v>5.345659911225984e-26</v>
+      </c>
+      <c r="DH4">
+        <v>2.746200974387129e-06</v>
+      </c>
+      <c r="DI4">
+        <v>1.572011010104018e-26</v>
+      </c>
+      <c r="DJ4">
+        <v>7.208008847632248e-07</v>
+      </c>
+      <c r="DK4">
+        <v>3.270662520169586e-25</v>
+      </c>
+      <c r="DL4">
+        <v>4.382523754511119e-11</v>
+      </c>
+      <c r="DM4">
+        <v>1.511240284370433e-12</v>
+      </c>
+      <c r="DN4">
+        <v>1.711150625249026e-05</v>
+      </c>
+      <c r="DO4">
+        <v>3.174594555123051e-06</v>
+      </c>
+      <c r="DP4">
+        <v>6.083592622056691e-12</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>7.872101819078249e-14</v>
+      </c>
+      <c r="DS4">
+        <v>3.306468566924609e-15</v>
+      </c>
+      <c r="DT4">
+        <v>4.720765192399481e-18</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>2.821580043168436e-07</v>
+      </c>
+      <c r="DY4">
+        <v>7.120067800181106e-05</v>
+      </c>
+      <c r="DZ4">
+        <v>0.0003571587649850076</v>
+      </c>
+      <c r="EA4">
+        <v>0.0006773258084278773</v>
+      </c>
+      <c r="EB4">
+        <v>0.001893111650979386</v>
+      </c>
+      <c r="EC4">
+        <v>0.01105210759339059</v>
+      </c>
+      <c r="ED4">
+        <v>99.91080667198013</v>
+      </c>
+      <c r="EE4">
+        <v>0.02270748046733686</v>
+      </c>
+      <c r="EF4">
+        <v>0.04904002250976155</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0.002241434334042306</v>
+      </c>
+      <c r="EI4">
+        <v>0.001131116454835878</v>
+      </c>
+      <c r="EJ4">
+        <v>2.208697211813323e-05</v>
+      </c>
+      <c r="EK4">
+        <v>4.463340582218041e-10</v>
+      </c>
+      <c r="EL4">
+        <v>1.671811525829746e-10</v>
+      </c>
+      <c r="EM4">
+        <v>9.924497777091755e-12</v>
+      </c>
+      <c r="EN4">
+        <v>5.191441885962488e-13</v>
+      </c>
+      <c r="EO4">
+        <v>4.235217554458114e-13</v>
+      </c>
+      <c r="EP4">
+        <v>2.315230503936218e-15</v>
+      </c>
+      <c r="EQ4">
+        <v>6.708878702522925e-14</v>
+      </c>
+      <c r="ER4">
+        <v>4.726924262734978e-23</v>
+      </c>
+      <c r="ES4">
+        <v>7.765222649190452e-16</v>
+      </c>
+      <c r="ET4">
+        <v>4.236458119622021e-26</v>
+      </c>
+      <c r="EU4">
+        <v>2.253472147899462e-20</v>
+      </c>
+      <c r="EV4">
+        <v>1.187067142819756e-20</v>
+      </c>
+      <c r="EW4">
+        <v>1.108563687369224e-23</v>
+      </c>
+      <c r="EX4">
+        <v>5.891164231943986e-21</v>
+      </c>
+      <c r="EY4">
+        <v>6.641579496339846e-26</v>
+      </c>
+      <c r="EZ4">
+        <v>3.527014442181506e-20</v>
+      </c>
+      <c r="FA4">
+        <v>3.06181592817544e-12</v>
+      </c>
+      <c r="FB4">
+        <v>1.197487613519549e-13</v>
+      </c>
+      <c r="FC4">
+        <v>4.492126965158282e-31</v>
+      </c>
+      <c r="FD4">
+        <v>2.038478783631321e-30</v>
+      </c>
+      <c r="FE4">
+        <v>3.509514417288422e-13</v>
+      </c>
+      <c r="FF4">
+        <v>0</v>
+      </c>
+      <c r="FG4">
+        <v>5.60923385418081e-15</v>
+      </c>
+      <c r="FH4">
+        <v>3.219766761212188e-16</v>
+      </c>
+      <c r="FI4">
+        <v>2.565067239221311e-19</v>
+      </c>
+      <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>1.036487973991517e-08</v>
+      </c>
+      <c r="FN4">
+        <v>8.612467164958518e-07</v>
+      </c>
+      <c r="FO4">
+        <v>1.180694849404839e-06</v>
+      </c>
+      <c r="FP4">
+        <v>8.47054659532895e-28</v>
+      </c>
+      <c r="FQ4">
+        <v>4.431701632946878e-20</v>
+      </c>
+      <c r="FR4">
+        <v>1.870097889533394e-12</v>
+      </c>
+      <c r="FS4">
+        <v>0.004453738673298274</v>
+      </c>
+      <c r="FT4">
+        <v>3.619899748463236e-07</v>
+      </c>
+      <c r="FU4">
+        <v>0.0001293253512681486</v>
+      </c>
+      <c r="FV4">
+        <v>0</v>
+      </c>
+      <c r="FW4">
+        <v>0.02110182850326763</v>
+      </c>
+      <c r="FX4">
+        <v>89.48688182863212</v>
+      </c>
+      <c r="FY4">
+        <v>0.1440749235788363</v>
+      </c>
+      <c r="FZ4">
+        <v>0.04107159859484091</v>
+      </c>
+      <c r="GA4">
+        <v>0.03359421837415139</v>
+      </c>
+      <c r="GB4">
+        <v>5.502187475306445</v>
+      </c>
+      <c r="GC4">
+        <v>1.330014277036896</v>
+      </c>
+      <c r="GD4">
+        <v>2.5615078030874</v>
+      </c>
+      <c r="GE4">
+        <v>0.5805918944892606</v>
+      </c>
+      <c r="GF4">
+        <v>0.0735839395220419</v>
+      </c>
+      <c r="GG4">
+        <v>4.627554605943586e-07</v>
+      </c>
+      <c r="GH4">
+        <v>0.1633058432201342</v>
+      </c>
+      <c r="GI4">
+        <v>9.151081345683176e-08</v>
+      </c>
+      <c r="GJ4">
+        <v>0.002703166693489443</v>
+      </c>
+      <c r="GK4">
+        <v>0.002702557758757152</v>
+      </c>
+      <c r="GL4">
+        <v>0.005404246016558509</v>
+      </c>
+      <c r="GM4">
+        <v>0.001470206237708614</v>
+      </c>
+      <c r="GN4">
+        <v>0.001470135725824282</v>
+      </c>
+      <c r="GO4">
+        <v>0.01304879470232423</v>
+      </c>
+      <c r="GP4">
+        <v>7.51062781283587e-08</v>
+      </c>
+      <c r="GQ4">
+        <v>3.646892957106439e-09</v>
+      </c>
+      <c r="GR4">
+        <v>0.02448634005781359</v>
+      </c>
+      <c r="GS4">
+        <v>0.006212799795236118</v>
+      </c>
+      <c r="GT4">
+        <v>1.117566781442137e-08</v>
+      </c>
+      <c r="GU4">
+        <v>0</v>
+      </c>
+      <c r="GV4">
+        <v>1.422731141471642e-10</v>
+      </c>
+      <c r="GW4">
+        <v>6.624353953241997e-12</v>
+      </c>
+      <c r="GX4">
+        <v>7.244934950989587e-15</v>
+      </c>
+      <c r="GY4">
+        <v>0</v>
+      </c>
+      <c r="GZ4">
+        <v>0</v>
+      </c>
+      <c r="HA4">
+        <v>0.877142071723938</v>
+      </c>
+      <c r="HB4">
+        <v>0.5240792632102966</v>
+      </c>
+      <c r="HC4">
+        <v>0.8727892637252808</v>
+      </c>
+      <c r="HD4">
+        <v>0.8837210536003113</v>
+      </c>
+      <c r="HE4">
+        <v>0.870343029499054</v>
+      </c>
+      <c r="HF4">
+        <v>110.7170104980469</v>
+      </c>
+      <c r="HG4">
+        <v>11.2144021987915</v>
+      </c>
+      <c r="HH4">
+        <v>10.539626121521</v>
+      </c>
+      <c r="HI4">
+        <v>86.49790954589844</v>
+      </c>
+      <c r="HJ4">
+        <v>89.44966888427734</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
